--- a/Excel2Json/Test/stage_story.xlsx
+++ b/Excel2Json/Test/stage_story.xlsx
@@ -416,16 +416,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>exp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -631,18 +627,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡大小的类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -707,10 +691,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>vector&lt;float&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>54|20|-24</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -791,14 +771,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>map&lt;int,int&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector&lt;int&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>所属章节ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -823,10 +795,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>vector&lt;int&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -892,6 +860,26 @@
   </si>
   <si>
     <t>normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[20]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;int&gt;;10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;float&gt;;10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;int,int&gt;;10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1480,8 +1468,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5:AC7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1493,8 +1481,8 @@
     <col min="5" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="23.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.25" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="3" bestFit="1" customWidth="1"/>
@@ -1509,7 +1497,7 @@
     <col min="24" max="24" width="13.75" style="3" customWidth="1"/>
     <col min="25" max="25" width="17.625" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.625" style="3" customWidth="1"/>
-    <col min="27" max="29" width="14.125" style="3" customWidth="1"/>
+    <col min="27" max="29" width="16.125" style="3" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1518,355 +1506,355 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="S1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="M3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="X3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="AA3" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="M4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="R4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="Z4" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -1877,24 +1865,24 @@
         <v>47101</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="18">
         <v>4110102</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K5" s="23">
         <v>30</v>
@@ -1903,11 +1891,11 @@
         <v>30</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="26" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="P5" s="24">
         <v>99</v>
@@ -1936,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AC5" s="23" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -1950,24 +1938,24 @@
         <v>47101</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="18">
         <v>4110103</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K6" s="23">
         <v>45</v>
@@ -1976,11 +1964,11 @@
         <v>45</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="26" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P6" s="24">
         <v>99</v>
@@ -2012,7 +2000,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="23" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -2023,24 +2011,24 @@
         <v>47101</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="18">
         <v>4110201</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K7" s="23">
         <v>60</v>
@@ -2049,11 +2037,11 @@
         <v>60</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P7" s="24">
         <v>99</v>
@@ -2082,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="AB7" s="23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AC7" s="23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -2096,26 +2084,26 @@
         <v>47102</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="14">
         <v>4110202</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K8" s="3">
         <v>15</v>
@@ -2124,10 +2112,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="P8" s="12">
         <v>99</v>
@@ -2159,23 +2147,23 @@
         <v>47102</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="14">
         <v>4110203</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J9" s="13">
         <v>10002</v>
@@ -2187,10 +2175,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P9" s="12">
         <v>99</v>
@@ -2222,23 +2210,23 @@
         <v>47102</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="14">
         <v>4110204</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J10" s="13">
         <v>10001</v>
@@ -2250,10 +2238,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P10" s="12">
         <v>99</v>
@@ -2283,23 +2271,23 @@
         <v>47102</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="14">
         <v>4110205</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J11" s="13">
         <v>10002</v>
@@ -2311,10 +2299,10 @@
         <v>45</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P11" s="12">
         <v>99</v>
@@ -2346,23 +2334,23 @@
         <v>47102</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="14">
         <v>4110206</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J12" s="13">
         <v>10001</v>
@@ -2374,10 +2362,10 @@
         <v>45</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P12" s="12">
         <v>99</v>
@@ -2409,23 +2397,23 @@
         <v>47102</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="14">
         <v>4110207</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J13" s="13">
         <v>10002</v>
@@ -2437,10 +2425,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P13" s="12">
         <v>99</v>
@@ -2472,23 +2460,23 @@
         <v>47102</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="14">
         <v>4110208</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J14" s="13">
         <v>10001</v>
@@ -2500,10 +2488,10 @@
         <v>45</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P14" s="12">
         <v>99</v>
@@ -2535,21 +2523,21 @@
         <v>47102</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J15" s="13">
         <v>10002</v>
@@ -2561,10 +2549,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P15" s="12">
         <v>99</v>
